--- a/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_latest.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_latest.xlsx
@@ -468,10 +468,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.91484851961063</v>
+        <v>2.745448847643053</v>
       </c>
       <c r="D2">
-        <v>9.51671356190457</v>
+        <v>9.493688876567631</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.957599359904569</v>
+        <v>6.934574674567631</v>
       </c>
       <c r="C3">
-        <v>-16.15536544118459</v>
+        <v>-16.12831465753368</v>
       </c>
       <c r="D3">
-        <v>-2.94012786324819</v>
+        <v>-2.771911005877533</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2.689977566904569</v>
+        <v>2.666952881567631</v>
       </c>
       <c r="C4">
-        <v>-2.297890222184589</v>
+        <v>-2.27083943853368</v>
       </c>
       <c r="D4">
-        <v>-0.513265805839344</v>
+        <v>-0.3450489484686868</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-2.778435767184589</v>
+        <v>-2.75138498353368</v>
       </c>
       <c r="C5">
-        <v>-2.27992021534256</v>
+        <v>-2.111703357971903</v>
       </c>
       <c r="D5">
-        <v>2.537428985318626</v>
+        <v>2.040358025009379</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -521,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-1.084957599954628</v>
+        <v>-0.9167407425839711</v>
       </c>
       <c r="C6">
-        <v>2.410019061318626</v>
+        <v>1.912948101009379</v>
       </c>
       <c r="D6">
-        <v>-1.960446371202797</v>
+        <v>-1.764067355060938</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -535,13 +535,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.846096470318626</v>
+        <v>1.349025510009379</v>
       </c>
       <c r="C7">
-        <v>-1.87298485540222</v>
+        <v>-1.676605839260361</v>
       </c>
       <c r="D7">
-        <v>0.9751860335748881</v>
+        <v>0.9272117483245859</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -549,13 +549,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-1.587599909437946</v>
+        <v>-1.391220893296087</v>
       </c>
       <c r="C8">
-        <v>0.3090965955748881</v>
+        <v>0.2611223103245859</v>
       </c>
       <c r="D8">
-        <v>-0.6290592005789074</v>
+        <v>-0.5508352566021527</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -563,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0899518274251119</v>
+        <v>-0.137926112675414</v>
       </c>
       <c r="C9">
-        <v>-0.8621375925789074</v>
+        <v>-0.7839136486021527</v>
       </c>
       <c r="D9">
-        <v>0.4729967304919684</v>
+        <v>-0.02328789311612689</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -577,13 +577,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.4631350915789074</v>
+        <v>-0.3849111476021527</v>
       </c>
       <c r="C10">
-        <v>2.094574267491968</v>
+        <v>1.598289643883873</v>
       </c>
       <c r="D10">
-        <v>0.3216375757589461</v>
+        <v>0.1507850357460907</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -591,13 +591,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.5879638664919685</v>
+        <v>0.09167924288387319</v>
       </c>
       <c r="C11">
-        <v>0.9472960387589461</v>
+        <v>0.7764434987460908</v>
       </c>
       <c r="D11">
-        <v>-0.9837738512619978</v>
+        <v>-0.6853637869931832</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -605,13 +605,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.5466956247589461</v>
+        <v>0.3758430847460907</v>
       </c>
       <c r="C12">
-        <v>-0.8699247842619979</v>
+        <v>-0.5715147199931834</v>
       </c>
       <c r="D12">
-        <v>0.8779691898727975</v>
+        <v>0.7147782794088806</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -619,13 +619,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-1.110523463261998</v>
+        <v>-0.8121133989931834</v>
       </c>
       <c r="C13">
-        <v>0.7638936518727975</v>
+        <v>0.6007027414088806</v>
       </c>
       <c r="D13">
-        <v>0.4543303531254733</v>
+        <v>1.071245387738463</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -633,13 +633,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.6849263828727974</v>
+        <v>0.5217354724088806</v>
       </c>
       <c r="C14">
-        <v>0.3956207981254733</v>
+        <v>1.012535832738463</v>
       </c>
       <c r="D14">
-        <v>0.3027745043902407</v>
+        <v>0.2265041937008457</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -647,13 +647,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.5833569371254733</v>
+        <v>1.200271971738463</v>
       </c>
       <c r="C15">
-        <v>-0.1664253806097593</v>
+        <v>-0.2426956912991542</v>
       </c>
       <c r="D15">
-        <v>-0.9071933926564913</v>
+        <v>-0.716353698</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -661,13 +661,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.1367167416097593</v>
+        <v>-0.2129870522991542</v>
       </c>
       <c r="C16">
-        <v>-0.6653428436564913</v>
+        <v>-0.474503149</v>
       </c>
       <c r="D16">
-        <v>0.248044304769696</v>
+        <v>0.1529377914640456</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -675,13 +675,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-0.5742589806564913</v>
+        <v>-0.383419286</v>
       </c>
       <c r="C17">
-        <v>0.08081382867431397</v>
+        <v>-0.01429268463133643</v>
       </c>
       <c r="D17">
-        <v>0.01668854517483986</v>
+        <v>0.3607736698111976</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -689,13 +689,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.006930188795156</v>
+        <v>-0.0881763245104944</v>
       </c>
       <c r="C18">
-        <v>-0.4756413308251601</v>
+        <v>-0.1315562061888024</v>
       </c>
       <c r="D18">
-        <v>0.461783159600231</v>
+        <v>0.4244005293199388</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -703,13 +703,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-0.6707153078251601</v>
+        <v>-0.3266301831888024</v>
       </c>
       <c r="C19">
-        <v>0.6705448586002309</v>
+        <v>0.6331622283199388</v>
       </c>
       <c r="D19">
-        <v>0.3576174791659499</v>
+        <v>0.4436511628968201</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -717,13 +717,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.123869923600231</v>
+        <v>0.08648729331993882</v>
       </c>
       <c r="C20">
-        <v>-0.66448220283405</v>
+        <v>-0.5784485191031798</v>
       </c>
       <c r="D20">
-        <v>0.4627417469122814</v>
+        <v>0.07992519753787367</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -731,13 +731,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.75160314083405</v>
+        <v>-0.6655694571031798</v>
       </c>
       <c r="C21">
-        <v>0.3360611849122814</v>
+        <v>-0.0467553644621263</v>
       </c>
       <c r="D21">
-        <v>-0.3578877577750048</v>
+        <v>-0.2524569298566441</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -745,10 +745,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.4790155979122814</v>
+        <v>0.09619904853787367</v>
       </c>
       <c r="C22">
-        <v>-0.07958040477500478</v>
+        <v>0.02585042314335589</v>
+      </c>
+      <c r="D22">
+        <v>0.7115302101128926</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -756,7 +759,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.1373663892249952</v>
+        <v>0.2427972171433558</v>
+      </c>
+      <c r="C23">
+        <v>0.3054124296933831</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_latest.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_latest.xlsx
@@ -28,7 +28,7 @@
     <t>2020-03-19_diff</t>
   </si>
   <si>
-    <t>2020-07-01_diff</t>
+    <t>2020-06-29_diff</t>
   </si>
   <si>
     <t>2020-09-22_diff</t>
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.934574674567631</v>
+        <v>0.09032787964305289</v>
       </c>
       <c r="C3">
-        <v>-16.12831465753368</v>
+        <v>1.422339425567631</v>
       </c>
       <c r="D3">
-        <v>-2.771911005877533</v>
+        <v>-10.48130760553368</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_latest.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Qminus1</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>2025-06-12_diff</t>
+  </si>
+  <si>
+    <t>2025-09-04_diff</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,7 +754,7 @@
         <v>0.02585042314335589</v>
       </c>
       <c r="D22">
-        <v>0.7115302101128926</v>
+        <v>0.7115302104241067</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -762,7 +765,15 @@
         <v>0.2427972171433558</v>
       </c>
       <c r="C23">
-        <v>0.3054124296933831</v>
+        <v>0.3054124294241067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.05603945542410671</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_latest.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_latest.xlsx
@@ -754,7 +754,7 @@
         <v>0.02585042314335589</v>
       </c>
       <c r="D22">
-        <v>0.7115302104241067</v>
+        <v>0.6447426901493167</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -765,7 +765,10 @@
         <v>0.2427972171433558</v>
       </c>
       <c r="C23">
-        <v>0.3054124294241067</v>
+        <v>0.2386249091493167</v>
+      </c>
+      <c r="D23">
+        <v>0.597740902</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -773,7 +776,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.05603945542410671</v>
+        <v>-0.0107480648506833</v>
+      </c>
+      <c r="C24">
+        <v>0.042359665</v>
       </c>
     </row>
   </sheetData>
